--- a/static/resources/1-export_to_excel.xlsx
+++ b/static/resources/1-export_to_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Дата</t>
   </si>
@@ -23,21 +23,27 @@
     <t>Доход(в руб.)</t>
   </si>
   <si>
+    <t>10.02.2022</t>
+  </si>
+  <si>
     <t>Категория</t>
   </si>
   <si>
     <t>Расход(в руб.)</t>
   </si>
   <si>
-    <t>10.02.2022</t>
-  </si>
-  <si>
     <t>11.02.2022</t>
   </si>
   <si>
     <t>07.01.2022</t>
   </si>
   <si>
+    <t>01.01.2022</t>
+  </si>
+  <si>
+    <t>03.02.2022</t>
+  </si>
+  <si>
     <t>Развлечение</t>
   </si>
   <si>
@@ -45,6 +51,9 @@
   </si>
   <si>
     <t>Рестораны</t>
+  </si>
+  <si>
+    <t>Переводы</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,6 +425,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -423,7 +440,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,18 +451,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -453,10 +470,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>150</v>
@@ -467,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>123</v>
@@ -478,10 +495,32 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/static/resources/1-export_to_excel.xlsx
+++ b/static/resources/1-export_to_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Дата</t>
   </si>
@@ -23,37 +23,10 @@
     <t>Доход(в руб.)</t>
   </si>
   <si>
-    <t>10.02.2022</t>
-  </si>
-  <si>
     <t>Категория</t>
   </si>
   <si>
     <t>Расход(в руб.)</t>
-  </si>
-  <si>
-    <t>11.02.2022</t>
-  </si>
-  <si>
-    <t>07.01.2022</t>
-  </si>
-  <si>
-    <t>01.01.2022</t>
-  </si>
-  <si>
-    <t>03.02.2022</t>
-  </si>
-  <si>
-    <t>Развлечение</t>
-  </si>
-  <si>
-    <t>Супермаркеты</t>
-  </si>
-  <si>
-    <t>Рестораны</t>
-  </si>
-  <si>
-    <t>Переводы</t>
   </si>
 </sst>
 </file>
@@ -411,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,14 +398,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>234</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -440,7 +405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,76 +416,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>234</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
